--- a/Code/Results/Cases/Case_3_125/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_125/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.9913369793172364</v>
+        <v>1.020168084457777</v>
       </c>
       <c r="D2">
-        <v>1.014356896151783</v>
+        <v>1.03005774031357</v>
       </c>
       <c r="E2">
-        <v>0.9990254837532666</v>
+        <v>1.021214168540316</v>
       </c>
       <c r="F2">
-        <v>1.01481283855055</v>
+        <v>1.038601733533827</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.043802238550039</v>
+        <v>1.030159117905667</v>
       </c>
       <c r="J2">
-        <v>1.013779923697414</v>
+        <v>1.025366720859784</v>
       </c>
       <c r="K2">
-        <v>1.02561977545385</v>
+        <v>1.032869854080603</v>
       </c>
       <c r="L2">
-        <v>1.010498411851268</v>
+        <v>1.024052160148313</v>
       </c>
       <c r="M2">
-        <v>1.026069593326308</v>
+        <v>1.041389300736089</v>
       </c>
       <c r="N2">
-        <v>1.00863888916786</v>
+        <v>1.012541577060937</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>0.9953842872418031</v>
+        <v>1.021021835154928</v>
       </c>
       <c r="D3">
-        <v>1.017460768611332</v>
+        <v>1.030722766348326</v>
       </c>
       <c r="E3">
-        <v>1.002207971230805</v>
+        <v>1.021935471194385</v>
       </c>
       <c r="F3">
-        <v>1.018839535451886</v>
+        <v>1.039501934825138</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.044879186584092</v>
+        <v>1.030297665745663</v>
       </c>
       <c r="J3">
-        <v>1.016001577044237</v>
+        <v>1.025858042191998</v>
       </c>
       <c r="K3">
-        <v>1.027875005838164</v>
+        <v>1.033343540563374</v>
       </c>
       <c r="L3">
-        <v>1.012812678393987</v>
+        <v>1.024580101029847</v>
       </c>
       <c r="M3">
-        <v>1.029236904751689</v>
+        <v>1.042099310868047</v>
       </c>
       <c r="N3">
-        <v>1.00937801219831</v>
+        <v>1.012704375368976</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>0.9979520485513802</v>
+        <v>1.021574662964624</v>
       </c>
       <c r="D4">
-        <v>1.019429719692812</v>
+        <v>1.031152986988345</v>
       </c>
       <c r="E4">
-        <v>1.004233179767408</v>
+        <v>1.022402949504523</v>
       </c>
       <c r="F4">
-        <v>1.021396807017955</v>
+        <v>1.040084859429011</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.045547209060206</v>
+        <v>1.030385484641469</v>
       </c>
       <c r="J4">
-        <v>1.017408286611093</v>
+        <v>1.026175726972121</v>
       </c>
       <c r="K4">
-        <v>1.029299167105992</v>
+        <v>1.033649271402065</v>
       </c>
       <c r="L4">
-        <v>1.014280781128739</v>
+        <v>1.024921793160431</v>
       </c>
       <c r="M4">
-        <v>1.031243672025687</v>
+        <v>1.042558537639016</v>
       </c>
       <c r="N4">
-        <v>1.009845943456169</v>
+        <v>1.012809615821165</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>0.9990196907076756</v>
+        <v>1.021807164662133</v>
       </c>
       <c r="D5">
-        <v>1.020248270495554</v>
+        <v>1.03133382706031</v>
       </c>
       <c r="E5">
-        <v>1.005076665523196</v>
+        <v>1.022599654589246</v>
       </c>
       <c r="F5">
-        <v>1.022460676162896</v>
+        <v>1.040330023057917</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.045821255738888</v>
+        <v>1.030421964511353</v>
       </c>
       <c r="J5">
-        <v>1.017992478614755</v>
+        <v>1.02630922467455</v>
       </c>
       <c r="K5">
-        <v>1.029889675890453</v>
+        <v>1.033777613485691</v>
       </c>
       <c r="L5">
-        <v>1.014891130694008</v>
+        <v>1.025065458174989</v>
       </c>
       <c r="M5">
-        <v>1.03207737310287</v>
+        <v>1.042751547709136</v>
       </c>
       <c r="N5">
-        <v>1.010040252515878</v>
+        <v>1.012853834315049</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>0.999198269032319</v>
+        <v>1.021846208125137</v>
       </c>
       <c r="D6">
-        <v>1.020385176593924</v>
+        <v>1.031364189404659</v>
       </c>
       <c r="E6">
-        <v>1.005217833470497</v>
+        <v>1.022632692580483</v>
       </c>
       <c r="F6">
-        <v>1.022638657075643</v>
+        <v>1.040371193045752</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.045866874397436</v>
+        <v>1.03042806386146</v>
       </c>
       <c r="J6">
-        <v>1.018090151019724</v>
+        <v>1.026331636149832</v>
       </c>
       <c r="K6">
-        <v>1.029988349198676</v>
+        <v>1.033799151670598</v>
       </c>
       <c r="L6">
-        <v>1.01499321538262</v>
+        <v>1.025089581160133</v>
       </c>
       <c r="M6">
-        <v>1.03221677989718</v>
+        <v>1.042783952035982</v>
       </c>
       <c r="N6">
-        <v>1.010072738387473</v>
+        <v>1.012861257340195</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>0.9979663604719282</v>
+        <v>1.021577769300517</v>
       </c>
       <c r="D7">
-        <v>1.019440693018488</v>
+        <v>1.031155403481486</v>
       </c>
       <c r="E7">
-        <v>1.004244481235854</v>
+        <v>1.022405577193343</v>
       </c>
       <c r="F7">
-        <v>1.021411066077986</v>
+        <v>1.04008813491843</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.045550897418818</v>
+        <v>1.030385973814136</v>
       </c>
       <c r="J7">
-        <v>1.017416120605603</v>
+        <v>1.026177511000364</v>
       </c>
       <c r="K7">
-        <v>1.029307089508593</v>
+        <v>1.033650987052438</v>
       </c>
       <c r="L7">
-        <v>1.014288963278902</v>
+        <v>1.02492371275169</v>
       </c>
       <c r="M7">
-        <v>1.031254850693981</v>
+        <v>1.042561116843096</v>
       </c>
       <c r="N7">
-        <v>1.009848549207234</v>
+        <v>1.012810206768015</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>0.9927156126786608</v>
+        <v>1.020456531051556</v>
       </c>
       <c r="D8">
-        <v>1.01541419005877</v>
+        <v>1.03028250771716</v>
       </c>
       <c r="E8">
-        <v>1.000108226696136</v>
+        <v>1.021457780407897</v>
       </c>
       <c r="F8">
-        <v>1.016183889125984</v>
+        <v>1.038905869785749</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.044172238649196</v>
+        <v>1.030206319345949</v>
       </c>
       <c r="J8">
-        <v>1.014537250555008</v>
+        <v>1.025532812720585</v>
       </c>
       <c r="K8">
-        <v>1.026389337175944</v>
+        <v>1.033030098486875</v>
       </c>
       <c r="L8">
-        <v>1.01128673218171</v>
+        <v>1.024230563093935</v>
       </c>
       <c r="M8">
-        <v>1.027149012456779</v>
+        <v>1.041629291844591</v>
       </c>
       <c r="N8">
-        <v>1.008890857785843</v>
+        <v>1.012596616155067</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9830530139590961</v>
+        <v>1.018483847322373</v>
       </c>
       <c r="D9">
-        <v>1.00800487465588</v>
+        <v>1.028743699436059</v>
       </c>
       <c r="E9">
-        <v>0.9925470702424665</v>
+        <v>1.019793439096704</v>
       </c>
       <c r="F9">
-        <v>1.006586772985333</v>
+        <v>1.036825972779481</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.041516634282669</v>
+        <v>1.029875762431631</v>
       </c>
       <c r="J9">
-        <v>1.009218742171661</v>
+        <v>1.024395040670599</v>
       </c>
       <c r="K9">
-        <v>1.020969399817029</v>
+        <v>1.031930131327414</v>
       </c>
       <c r="L9">
-        <v>1.005762234571762</v>
+        <v>1.023009807223281</v>
       </c>
       <c r="M9">
-        <v>1.019573880742842</v>
+        <v>1.039985858479927</v>
       </c>
       <c r="N9">
-        <v>1.007121131717988</v>
+        <v>1.012219487934931</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9763079872562472</v>
+        <v>1.017170881394464</v>
       </c>
       <c r="D10">
-        <v>1.002836604538387</v>
+        <v>1.027717492238915</v>
       </c>
       <c r="E10">
-        <v>0.9873059657031124</v>
+        <v>1.018687876509351</v>
       </c>
       <c r="F10">
-        <v>0.9999047254608809</v>
+        <v>1.035441771141199</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.03958610407704</v>
+        <v>1.029646042127417</v>
       </c>
       <c r="J10">
-        <v>1.005494186183416</v>
+        <v>1.023635432877991</v>
       </c>
       <c r="K10">
-        <v>1.017154831394157</v>
+        <v>1.031192946610795</v>
       </c>
       <c r="L10">
-        <v>1.001908260726037</v>
+        <v>1.022196491418872</v>
       </c>
       <c r="M10">
-        <v>1.014275700332044</v>
+        <v>1.038889365387852</v>
       </c>
       <c r="N10">
-        <v>1.005881594058773</v>
+        <v>1.011967587181848</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9733087520771142</v>
+        <v>1.016602881770817</v>
       </c>
       <c r="D11">
-        <v>1.000540232274694</v>
+        <v>1.02727307569208</v>
       </c>
       <c r="E11">
-        <v>0.9849849059784334</v>
+        <v>1.018210125089375</v>
       </c>
       <c r="F11">
-        <v>0.9969381367227598</v>
+        <v>1.034842987203126</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.038710245426106</v>
+        <v>1.029544364067562</v>
       </c>
       <c r="J11">
-        <v>1.00383567507698</v>
+        <v>1.023306269851415</v>
       </c>
       <c r="K11">
-        <v>1.015451967792542</v>
+        <v>1.030872835800496</v>
       </c>
       <c r="L11">
-        <v>1.000195651061011</v>
+        <v>1.021844456299204</v>
       </c>
       <c r="M11">
-        <v>1.011918027226579</v>
+        <v>1.038414385303759</v>
       </c>
       <c r="N11">
-        <v>1.005329617794715</v>
+        <v>1.011858402327658</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9721822884021222</v>
+        <v>1.016391981425519</v>
       </c>
       <c r="D12">
-        <v>0.9996780884086969</v>
+        <v>1.027107992026718</v>
       </c>
       <c r="E12">
-        <v>0.9841146323659059</v>
+        <v>1.01803281353639</v>
       </c>
       <c r="F12">
-        <v>0.9958246809277169</v>
+        <v>1.034620661770531</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.038378736206626</v>
+        <v>1.029506265470103</v>
       </c>
       <c r="J12">
-        <v>1.00321245385448</v>
+        <v>1.023183967984852</v>
       </c>
       <c r="K12">
-        <v>1.014811458336228</v>
+        <v>1.030753797773457</v>
       </c>
       <c r="L12">
-        <v>0.9995526330055585</v>
+        <v>1.021713716483252</v>
       </c>
       <c r="M12">
-        <v>1.011032313032777</v>
+        <v>1.038237929394268</v>
       </c>
       <c r="N12">
-        <v>1.005122199805719</v>
+        <v>1.011817830077907</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.972424490622828</v>
+        <v>1.016437216622839</v>
       </c>
       <c r="D13">
-        <v>0.9998634425275124</v>
+        <v>1.027143403347946</v>
       </c>
       <c r="E13">
-        <v>0.9843016830800292</v>
+        <v>1.018070840805458</v>
       </c>
       <c r="F13">
-        <v>0.9960640517700229</v>
+        <v>1.034668347248383</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.038450128533707</v>
+        <v>1.029514452706365</v>
       </c>
       <c r="J13">
-        <v>1.003346466734037</v>
+        <v>1.023210203763509</v>
       </c>
       <c r="K13">
-        <v>1.014949216523489</v>
+        <v>1.030779337904665</v>
       </c>
       <c r="L13">
-        <v>0.999690878789801</v>
+        <v>1.021741759615163</v>
       </c>
       <c r="M13">
-        <v>1.011222759996176</v>
+        <v>1.038275780989339</v>
       </c>
       <c r="N13">
-        <v>1.005166801446604</v>
+        <v>1.011826533686585</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9732158951290667</v>
+        <v>1.016585447042383</v>
       </c>
       <c r="D14">
-        <v>1.000469156538355</v>
+        <v>1.027259429969173</v>
       </c>
       <c r="E14">
-        <v>0.9849131369460024</v>
+        <v>1.01819546546079</v>
       </c>
       <c r="F14">
-        <v>0.9968463365784339</v>
+        <v>1.034824607875845</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.038682969834588</v>
+        <v>1.029541221569804</v>
       </c>
       <c r="J14">
-        <v>1.003784307627721</v>
+        <v>1.023296161069868</v>
       </c>
       <c r="K14">
-        <v>1.01539918792818</v>
+        <v>1.030862998818501</v>
       </c>
       <c r="L14">
-        <v>1.000142641086095</v>
+        <v>1.021833648855186</v>
       </c>
       <c r="M14">
-        <v>1.01184501974199</v>
+        <v>1.038399799948076</v>
       </c>
       <c r="N14">
-        <v>1.005312521894566</v>
+        <v>1.011855048939544</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9737018417644246</v>
+        <v>1.016676787339024</v>
       </c>
       <c r="D15">
-        <v>1.000841130087641</v>
+        <v>1.027330916848736</v>
       </c>
       <c r="E15">
-        <v>0.9852887852034885</v>
+        <v>1.018272270300104</v>
       </c>
       <c r="F15">
-        <v>0.9973267833910303</v>
+        <v>1.034920897129059</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.038825607109031</v>
+        <v>1.029557670935627</v>
       </c>
       <c r="J15">
-        <v>1.004053115549373</v>
+        <v>1.023349117459645</v>
       </c>
       <c r="K15">
-        <v>1.015675361845449</v>
+        <v>1.03091452727035</v>
       </c>
       <c r="L15">
-        <v>1.000420066101095</v>
+        <v>1.021890267762341</v>
       </c>
       <c r="M15">
-        <v>1.012227080290007</v>
+        <v>1.038476208570461</v>
       </c>
       <c r="N15">
-        <v>1.005401985396352</v>
+        <v>1.011872616002646</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9765053298644198</v>
+        <v>1.017208588802299</v>
       </c>
       <c r="D16">
-        <v>1.002987742961064</v>
+        <v>1.027746985543643</v>
       </c>
       <c r="E16">
-        <v>0.9874588878054985</v>
+        <v>1.018719603762832</v>
       </c>
       <c r="F16">
-        <v>1.000100020866379</v>
+        <v>1.035481522924966</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.03964337580937</v>
+        <v>1.029652743724147</v>
       </c>
       <c r="J16">
-        <v>1.005603266746923</v>
+        <v>1.02365727322247</v>
       </c>
       <c r="K16">
-        <v>1.017266741705886</v>
+        <v>1.031214172359106</v>
       </c>
       <c r="L16">
-        <v>1.002020973032766</v>
+        <v>1.022219857804095</v>
       </c>
       <c r="M16">
-        <v>1.014430797204865</v>
+        <v>1.038920884356162</v>
       </c>
       <c r="N16">
-        <v>1.005917897371375</v>
+        <v>1.011974831135649</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9782424261200695</v>
+        <v>1.017542314888514</v>
       </c>
       <c r="D17">
-        <v>1.004318337122331</v>
+        <v>1.028007959067524</v>
       </c>
       <c r="E17">
-        <v>0.9888060580207029</v>
+        <v>1.019000463641193</v>
       </c>
       <c r="F17">
-        <v>1.001819631295042</v>
+        <v>1.035833346413315</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.040145529110853</v>
+        <v>1.029711789913035</v>
       </c>
       <c r="J17">
-        <v>1.00656317850853</v>
+        <v>1.023850505666372</v>
       </c>
       <c r="K17">
-        <v>1.018251071543785</v>
+        <v>1.03140189047118</v>
       </c>
       <c r="L17">
-        <v>1.003013246215081</v>
+        <v>1.022426638236584</v>
       </c>
       <c r="M17">
-        <v>1.015795830829022</v>
+        <v>1.039199767624688</v>
       </c>
       <c r="N17">
-        <v>1.006237365288528</v>
+        <v>1.012038918788916</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9792481047549669</v>
+        <v>1.017737022065076</v>
       </c>
       <c r="D18">
-        <v>1.005088835096381</v>
+        <v>1.02816017440391</v>
       </c>
       <c r="E18">
-        <v>0.9895868846834012</v>
+        <v>1.019164377401058</v>
       </c>
       <c r="F18">
-        <v>1.002815624155595</v>
+        <v>1.036038615379757</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.040434586933421</v>
+        <v>1.029746017493803</v>
       </c>
       <c r="J18">
-        <v>1.007118685628769</v>
+        <v>1.023963190890299</v>
       </c>
       <c r="K18">
-        <v>1.018820302980276</v>
+        <v>1.031511295864551</v>
       </c>
       <c r="L18">
-        <v>1.003587815949812</v>
+        <v>1.022547262800541</v>
       </c>
       <c r="M18">
-        <v>1.016585932607206</v>
+        <v>1.039362416949156</v>
       </c>
       <c r="N18">
-        <v>1.006422241259857</v>
+        <v>1.012076289375454</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9795897540029009</v>
+        <v>1.017803420686538</v>
       </c>
       <c r="D19">
-        <v>1.005350613837229</v>
+        <v>1.028212074811149</v>
       </c>
       <c r="E19">
-        <v>0.9898522968926129</v>
+        <v>1.019220283470639</v>
       </c>
       <c r="F19">
-        <v>1.003154055743154</v>
+        <v>1.036108616284578</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.040532502114011</v>
+        <v>1.029757652049772</v>
       </c>
       <c r="J19">
-        <v>1.007307362914687</v>
+        <v>1.024001609534529</v>
       </c>
       <c r="K19">
-        <v>1.019013572161385</v>
+        <v>1.031548585410024</v>
       </c>
       <c r="L19">
-        <v>1.003783024589535</v>
+        <v>1.022588394832066</v>
       </c>
       <c r="M19">
-        <v>1.016854314843133</v>
+        <v>1.039417872967739</v>
       </c>
       <c r="N19">
-        <v>1.006485033715676</v>
+        <v>1.012089029959321</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9780568363094413</v>
+        <v>1.017506504015008</v>
       </c>
       <c r="D20">
-        <v>1.004176160452872</v>
+        <v>1.027979959697012</v>
       </c>
       <c r="E20">
-        <v>0.988662034537121</v>
+        <v>1.018970320408332</v>
       </c>
       <c r="F20">
-        <v>1.001635863929105</v>
+        <v>1.035795593248736</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.040092051221483</v>
+        <v>1.02970547684774</v>
       </c>
       <c r="J20">
-        <v>1.006460645591989</v>
+        <v>1.023829776126927</v>
       </c>
       <c r="K20">
-        <v>1.01814597245489</v>
+        <v>1.031381759125344</v>
       </c>
       <c r="L20">
-        <v>1.002907221865071</v>
+        <v>1.022404451295548</v>
       </c>
       <c r="M20">
-        <v>1.015650009502748</v>
+        <v>1.039169847998341</v>
       </c>
       <c r="N20">
-        <v>1.006203241552165</v>
+        <v>1.012032043889556</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9729831939873999</v>
+        <v>1.016541794658704</v>
       </c>
       <c r="D21">
-        <v>1.000291045165973</v>
+        <v>1.027225263216112</v>
       </c>
       <c r="E21">
-        <v>0.9847333065189174</v>
+        <v>1.018158762545625</v>
       </c>
       <c r="F21">
-        <v>0.9966162960020688</v>
+        <v>1.034778590528656</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.038614575857799</v>
+        <v>1.029533347932797</v>
       </c>
       <c r="J21">
-        <v>1.003655575024752</v>
+        <v>1.023270849771678</v>
       </c>
       <c r="K21">
-        <v>1.015266905704857</v>
+        <v>1.030838366469974</v>
       </c>
       <c r="L21">
-        <v>1.000009800703122</v>
+        <v>1.021806589155015</v>
       </c>
       <c r="M21">
-        <v>1.011662058511761</v>
+        <v>1.038363280192773</v>
       </c>
       <c r="N21">
-        <v>1.005269677637515</v>
+        <v>1.011846652350286</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.96972103946727</v>
+        <v>1.015935707168446</v>
       </c>
       <c r="D22">
-        <v>0.9977950627717328</v>
+        <v>1.026750712635745</v>
       </c>
       <c r="E22">
-        <v>0.9822159279526144</v>
+        <v>1.017649352902694</v>
       </c>
       <c r="F22">
-        <v>0.9933932816354882</v>
+        <v>1.034139679724096</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.037649797580262</v>
+        <v>1.029423209931422</v>
       </c>
       <c r="J22">
-        <v>1.001850231700739</v>
+        <v>1.022919222519706</v>
       </c>
       <c r="K22">
-        <v>1.013410326814031</v>
+        <v>1.03049593573523</v>
       </c>
       <c r="L22">
-        <v>0.9981481193563558</v>
+        <v>1.021430815684666</v>
       </c>
       <c r="M22">
-        <v>1.009096764970663</v>
+        <v>1.037856002657064</v>
       </c>
       <c r="N22">
-        <v>1.004668831008894</v>
+        <v>1.011729996193985</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9714574216155882</v>
+        <v>1.016256961210334</v>
       </c>
       <c r="D23">
-        <v>0.9991234126470993</v>
+        <v>1.027002284365435</v>
       </c>
       <c r="E23">
-        <v>0.9835550453076922</v>
+        <v>1.017919319553237</v>
       </c>
       <c r="F23">
-        <v>0.9951084012148791</v>
+        <v>1.034478328629931</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.038164703587759</v>
+        <v>1.029481777290499</v>
       </c>
       <c r="J23">
-        <v>1.002811335579918</v>
+        <v>1.023105646110902</v>
       </c>
       <c r="K23">
-        <v>1.014399040278724</v>
+        <v>1.030677538065206</v>
       </c>
       <c r="L23">
-        <v>0.9991389231676588</v>
+        <v>1.021630007926847</v>
       </c>
       <c r="M23">
-        <v>1.010462313970755</v>
+        <v>1.038124934367193</v>
       </c>
       <c r="N23">
-        <v>1.004988701211999</v>
+        <v>1.011791846518882</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9781407196138114</v>
+        <v>1.017522685251701</v>
       </c>
       <c r="D24">
-        <v>1.004240421294673</v>
+        <v>1.027992611426385</v>
       </c>
       <c r="E24">
-        <v>0.9887271278355311</v>
+        <v>1.01898394055078</v>
       </c>
       <c r="F24">
-        <v>1.001718922168178</v>
+        <v>1.035812652105035</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.040116227430643</v>
+        <v>1.02970833010861</v>
       </c>
       <c r="J24">
-        <v>1.006506989357891</v>
+        <v>1.023839142987763</v>
       </c>
       <c r="K24">
-        <v>1.018193477364993</v>
+        <v>1.03139085588419</v>
       </c>
       <c r="L24">
-        <v>1.0029551426829</v>
+        <v>1.022414476579039</v>
       </c>
       <c r="M24">
-        <v>1.015715918701094</v>
+        <v>1.039183367447144</v>
       </c>
       <c r="N24">
-        <v>1.006218665117689</v>
+        <v>1.012035150393625</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9856023627808844</v>
+        <v>1.018993459451563</v>
       </c>
       <c r="D25">
-        <v>1.009959326449809</v>
+        <v>1.029141584966492</v>
       </c>
       <c r="E25">
-        <v>0.9945358082832516</v>
+        <v>1.020223013812886</v>
       </c>
       <c r="F25">
-        <v>1.009116037951851</v>
+        <v>1.037363261440536</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.042230776002934</v>
+        <v>1.029962870951265</v>
       </c>
       <c r="J25">
-        <v>1.010624173407123</v>
+        <v>1.024689379862011</v>
       </c>
       <c r="K25">
-        <v>1.022404979254087</v>
+        <v>1.032215187844333</v>
       </c>
       <c r="L25">
-        <v>1.007219545185747</v>
+        <v>1.02332531552487</v>
       </c>
       <c r="M25">
-        <v>1.02157446842794</v>
+        <v>1.04041088592868</v>
       </c>
       <c r="N25">
-        <v>1.007588829100575</v>
+        <v>1.012317071403381</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_125/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_125/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.020168084457777</v>
+        <v>0.9913369793172364</v>
       </c>
       <c r="D2">
-        <v>1.03005774031357</v>
+        <v>1.014356896151784</v>
       </c>
       <c r="E2">
-        <v>1.021214168540316</v>
+        <v>0.9990254837532665</v>
       </c>
       <c r="F2">
-        <v>1.038601733533827</v>
+        <v>1.014812838550551</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.030159117905667</v>
+        <v>1.04380223855004</v>
       </c>
       <c r="J2">
-        <v>1.025366720859784</v>
+        <v>1.013779923697414</v>
       </c>
       <c r="K2">
-        <v>1.032869854080603</v>
+        <v>1.02561977545385</v>
       </c>
       <c r="L2">
-        <v>1.024052160148313</v>
+        <v>1.010498411851268</v>
       </c>
       <c r="M2">
-        <v>1.041389300736089</v>
+        <v>1.026069593326308</v>
       </c>
       <c r="N2">
-        <v>1.012541577060937</v>
+        <v>1.00863888916786</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.021021835154928</v>
+        <v>0.9953842872418023</v>
       </c>
       <c r="D3">
-        <v>1.030722766348326</v>
+        <v>1.017460768611331</v>
       </c>
       <c r="E3">
-        <v>1.021935471194385</v>
+        <v>1.002207971230804</v>
       </c>
       <c r="F3">
-        <v>1.039501934825138</v>
+        <v>1.018839535451886</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.030297665745663</v>
+        <v>1.044879186584092</v>
       </c>
       <c r="J3">
-        <v>1.025858042191998</v>
+        <v>1.016001577044236</v>
       </c>
       <c r="K3">
-        <v>1.033343540563374</v>
+        <v>1.027875005838164</v>
       </c>
       <c r="L3">
-        <v>1.024580101029847</v>
+        <v>1.012812678393986</v>
       </c>
       <c r="M3">
-        <v>1.042099310868047</v>
+        <v>1.029236904751688</v>
       </c>
       <c r="N3">
-        <v>1.012704375368976</v>
+        <v>1.00937801219831</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.021574662964624</v>
+        <v>0.9979520485513798</v>
       </c>
       <c r="D4">
-        <v>1.031152986988345</v>
+        <v>1.019429719692812</v>
       </c>
       <c r="E4">
-        <v>1.022402949504523</v>
+        <v>1.004233179767407</v>
       </c>
       <c r="F4">
-        <v>1.040084859429011</v>
+        <v>1.021396807017955</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.030385484641469</v>
+        <v>1.045547209060206</v>
       </c>
       <c r="J4">
-        <v>1.026175726972121</v>
+        <v>1.017408286611093</v>
       </c>
       <c r="K4">
-        <v>1.033649271402065</v>
+        <v>1.029299167105991</v>
       </c>
       <c r="L4">
-        <v>1.024921793160431</v>
+        <v>1.014280781128739</v>
       </c>
       <c r="M4">
-        <v>1.042558537639016</v>
+        <v>1.031243672025687</v>
       </c>
       <c r="N4">
-        <v>1.012809615821165</v>
+        <v>1.009845943456169</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.021807164662133</v>
+        <v>0.9990196907076758</v>
       </c>
       <c r="D5">
-        <v>1.03133382706031</v>
+        <v>1.020248270495554</v>
       </c>
       <c r="E5">
-        <v>1.022599654589246</v>
+        <v>1.005076665523197</v>
       </c>
       <c r="F5">
-        <v>1.040330023057917</v>
+        <v>1.022460676162896</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.030421964511353</v>
+        <v>1.045821255738888</v>
       </c>
       <c r="J5">
-        <v>1.02630922467455</v>
+        <v>1.017992478614755</v>
       </c>
       <c r="K5">
-        <v>1.033777613485691</v>
+        <v>1.029889675890453</v>
       </c>
       <c r="L5">
-        <v>1.025065458174989</v>
+        <v>1.014891130694008</v>
       </c>
       <c r="M5">
-        <v>1.042751547709136</v>
+        <v>1.03207737310287</v>
       </c>
       <c r="N5">
-        <v>1.012853834315049</v>
+        <v>1.010040252515878</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.021846208125137</v>
+        <v>0.9991982690323191</v>
       </c>
       <c r="D6">
-        <v>1.031364189404659</v>
+        <v>1.020385176593924</v>
       </c>
       <c r="E6">
-        <v>1.022632692580483</v>
+        <v>1.005217833470497</v>
       </c>
       <c r="F6">
-        <v>1.040371193045752</v>
+        <v>1.022638657075643</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.03042806386146</v>
+        <v>1.045866874397436</v>
       </c>
       <c r="J6">
-        <v>1.026331636149832</v>
+        <v>1.018090151019724</v>
       </c>
       <c r="K6">
-        <v>1.033799151670598</v>
+        <v>1.029988349198676</v>
       </c>
       <c r="L6">
-        <v>1.025089581160133</v>
+        <v>1.01499321538262</v>
       </c>
       <c r="M6">
-        <v>1.042783952035982</v>
+        <v>1.03221677989718</v>
       </c>
       <c r="N6">
-        <v>1.012861257340195</v>
+        <v>1.010072738387473</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.021577769300517</v>
+        <v>0.9979663604719282</v>
       </c>
       <c r="D7">
-        <v>1.031155403481486</v>
+        <v>1.019440693018488</v>
       </c>
       <c r="E7">
-        <v>1.022405577193343</v>
+        <v>1.004244481235854</v>
       </c>
       <c r="F7">
-        <v>1.04008813491843</v>
+        <v>1.021411066077986</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.030385973814136</v>
+        <v>1.045550897418818</v>
       </c>
       <c r="J7">
-        <v>1.026177511000364</v>
+        <v>1.017416120605603</v>
       </c>
       <c r="K7">
-        <v>1.033650987052438</v>
+        <v>1.029307089508593</v>
       </c>
       <c r="L7">
-        <v>1.02492371275169</v>
+        <v>1.014288963278902</v>
       </c>
       <c r="M7">
-        <v>1.042561116843096</v>
+        <v>1.031254850693981</v>
       </c>
       <c r="N7">
-        <v>1.012810206768015</v>
+        <v>1.009848549207234</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.020456531051556</v>
+        <v>0.9927156126786604</v>
       </c>
       <c r="D8">
-        <v>1.03028250771716</v>
+        <v>1.015414190058769</v>
       </c>
       <c r="E8">
-        <v>1.021457780407897</v>
+        <v>1.000108226696135</v>
       </c>
       <c r="F8">
-        <v>1.038905869785749</v>
+        <v>1.016183889125984</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.030206319345949</v>
+        <v>1.044172238649196</v>
       </c>
       <c r="J8">
-        <v>1.025532812720585</v>
+        <v>1.014537250555008</v>
       </c>
       <c r="K8">
-        <v>1.033030098486875</v>
+        <v>1.026389337175944</v>
       </c>
       <c r="L8">
-        <v>1.024230563093935</v>
+        <v>1.011286732181709</v>
       </c>
       <c r="M8">
-        <v>1.041629291844591</v>
+        <v>1.027149012456779</v>
       </c>
       <c r="N8">
-        <v>1.012596616155067</v>
+        <v>1.008890857785843</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.018483847322373</v>
+        <v>0.9830530139590964</v>
       </c>
       <c r="D9">
-        <v>1.028743699436059</v>
+        <v>1.00800487465588</v>
       </c>
       <c r="E9">
-        <v>1.019793439096704</v>
+        <v>0.9925470702424669</v>
       </c>
       <c r="F9">
-        <v>1.036825972779481</v>
+        <v>1.006586772985334</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.029875762431631</v>
+        <v>1.041516634282669</v>
       </c>
       <c r="J9">
-        <v>1.024395040670599</v>
+        <v>1.009218742171662</v>
       </c>
       <c r="K9">
-        <v>1.031930131327414</v>
+        <v>1.020969399817029</v>
       </c>
       <c r="L9">
-        <v>1.023009807223281</v>
+        <v>1.005762234571763</v>
       </c>
       <c r="M9">
-        <v>1.039985858479927</v>
+        <v>1.019573880742843</v>
       </c>
       <c r="N9">
-        <v>1.012219487934931</v>
+        <v>1.007121131717988</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.017170881394464</v>
+        <v>0.9763079872562473</v>
       </c>
       <c r="D10">
-        <v>1.027717492238915</v>
+        <v>1.002836604538386</v>
       </c>
       <c r="E10">
-        <v>1.018687876509351</v>
+        <v>0.9873059657031121</v>
       </c>
       <c r="F10">
-        <v>1.035441771141199</v>
+        <v>0.9999047254608809</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.029646042127417</v>
+        <v>1.03958610407704</v>
       </c>
       <c r="J10">
-        <v>1.023635432877991</v>
+        <v>1.005494186183416</v>
       </c>
       <c r="K10">
-        <v>1.031192946610795</v>
+        <v>1.017154831394157</v>
       </c>
       <c r="L10">
-        <v>1.022196491418872</v>
+        <v>1.001908260726036</v>
       </c>
       <c r="M10">
-        <v>1.038889365387852</v>
+        <v>1.014275700332044</v>
       </c>
       <c r="N10">
-        <v>1.011967587181848</v>
+        <v>1.005881594058773</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.016602881770817</v>
+        <v>0.9733087520771152</v>
       </c>
       <c r="D11">
-        <v>1.02727307569208</v>
+        <v>1.000540232274695</v>
       </c>
       <c r="E11">
-        <v>1.018210125089375</v>
+        <v>0.9849849059784344</v>
       </c>
       <c r="F11">
-        <v>1.034842987203126</v>
+        <v>0.9969381367227604</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.029544364067562</v>
+        <v>1.038710245426106</v>
       </c>
       <c r="J11">
-        <v>1.023306269851415</v>
+        <v>1.003835675076981</v>
       </c>
       <c r="K11">
-        <v>1.030872835800496</v>
+        <v>1.015451967792543</v>
       </c>
       <c r="L11">
-        <v>1.021844456299204</v>
+        <v>1.000195651061012</v>
       </c>
       <c r="M11">
-        <v>1.038414385303759</v>
+        <v>1.01191802722658</v>
       </c>
       <c r="N11">
-        <v>1.011858402327658</v>
+        <v>1.005329617794715</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.016391981425519</v>
+        <v>0.9721822884021222</v>
       </c>
       <c r="D12">
-        <v>1.027107992026718</v>
+        <v>0.9996780884086969</v>
       </c>
       <c r="E12">
-        <v>1.01803281353639</v>
+        <v>0.9841146323659059</v>
       </c>
       <c r="F12">
-        <v>1.034620661770531</v>
+        <v>0.995824680927717</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.029506265470103</v>
+        <v>1.038378736206626</v>
       </c>
       <c r="J12">
-        <v>1.023183967984852</v>
+        <v>1.00321245385448</v>
       </c>
       <c r="K12">
-        <v>1.030753797773457</v>
+        <v>1.014811458336228</v>
       </c>
       <c r="L12">
-        <v>1.021713716483252</v>
+        <v>0.9995526330055586</v>
       </c>
       <c r="M12">
-        <v>1.038237929394268</v>
+        <v>1.011032313032777</v>
       </c>
       <c r="N12">
-        <v>1.011817830077907</v>
+        <v>1.005122199805719</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.016437216622839</v>
+        <v>0.9724244906228277</v>
       </c>
       <c r="D13">
-        <v>1.027143403347946</v>
+        <v>0.9998634425275121</v>
       </c>
       <c r="E13">
-        <v>1.018070840805458</v>
+        <v>0.984301683080029</v>
       </c>
       <c r="F13">
-        <v>1.034668347248383</v>
+        <v>0.9960640517700228</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.029514452706365</v>
+        <v>1.038450128533707</v>
       </c>
       <c r="J13">
-        <v>1.023210203763509</v>
+        <v>1.003346466734037</v>
       </c>
       <c r="K13">
-        <v>1.030779337904665</v>
+        <v>1.014949216523489</v>
       </c>
       <c r="L13">
-        <v>1.021741759615163</v>
+        <v>0.9996908787898007</v>
       </c>
       <c r="M13">
-        <v>1.038275780989339</v>
+        <v>1.011222759996176</v>
       </c>
       <c r="N13">
-        <v>1.011826533686585</v>
+        <v>1.005166801446604</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.016585447042383</v>
+        <v>0.9732158951290675</v>
       </c>
       <c r="D14">
-        <v>1.027259429969173</v>
+        <v>1.000469156538356</v>
       </c>
       <c r="E14">
-        <v>1.01819546546079</v>
+        <v>0.9849131369460031</v>
       </c>
       <c r="F14">
-        <v>1.034824607875845</v>
+        <v>0.9968463365784349</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.029541221569804</v>
+        <v>1.038682969834588</v>
       </c>
       <c r="J14">
-        <v>1.023296161069868</v>
+        <v>1.003784307627721</v>
       </c>
       <c r="K14">
-        <v>1.030862998818501</v>
+        <v>1.015399187928181</v>
       </c>
       <c r="L14">
-        <v>1.021833648855186</v>
+        <v>1.000142641086096</v>
       </c>
       <c r="M14">
-        <v>1.038399799948076</v>
+        <v>1.011845019741991</v>
       </c>
       <c r="N14">
-        <v>1.011855048939544</v>
+        <v>1.005312521894566</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.016676787339024</v>
+        <v>0.9737018417644244</v>
       </c>
       <c r="D15">
-        <v>1.027330916848736</v>
+        <v>1.000841130087641</v>
       </c>
       <c r="E15">
-        <v>1.018272270300104</v>
+        <v>0.9852887852034881</v>
       </c>
       <c r="F15">
-        <v>1.034920897129059</v>
+        <v>0.9973267833910301</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.029557670935627</v>
+        <v>1.038825607109031</v>
       </c>
       <c r="J15">
-        <v>1.023349117459645</v>
+        <v>1.004053115549372</v>
       </c>
       <c r="K15">
-        <v>1.03091452727035</v>
+        <v>1.015675361845449</v>
       </c>
       <c r="L15">
-        <v>1.021890267762341</v>
+        <v>1.000420066101095</v>
       </c>
       <c r="M15">
-        <v>1.038476208570461</v>
+        <v>1.012227080290007</v>
       </c>
       <c r="N15">
-        <v>1.011872616002646</v>
+        <v>1.005401985396352</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.017208588802299</v>
+        <v>0.97650532986442</v>
       </c>
       <c r="D16">
-        <v>1.027746985543643</v>
+        <v>1.002987742961065</v>
       </c>
       <c r="E16">
-        <v>1.018719603762832</v>
+        <v>0.9874588878054986</v>
       </c>
       <c r="F16">
-        <v>1.035481522924966</v>
+        <v>1.000100020866379</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.029652743724147</v>
+        <v>1.039643375809369</v>
       </c>
       <c r="J16">
-        <v>1.02365727322247</v>
+        <v>1.005603266746923</v>
       </c>
       <c r="K16">
-        <v>1.031214172359106</v>
+        <v>1.017266741705886</v>
       </c>
       <c r="L16">
-        <v>1.022219857804095</v>
+        <v>1.002020973032766</v>
       </c>
       <c r="M16">
-        <v>1.038920884356162</v>
+        <v>1.014430797204865</v>
       </c>
       <c r="N16">
-        <v>1.011974831135649</v>
+        <v>1.005917897371375</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.017542314888514</v>
+        <v>0.9782424261200694</v>
       </c>
       <c r="D17">
-        <v>1.028007959067524</v>
+        <v>1.004318337122331</v>
       </c>
       <c r="E17">
-        <v>1.019000463641193</v>
+        <v>0.9888060580207029</v>
       </c>
       <c r="F17">
-        <v>1.035833346413315</v>
+        <v>1.001819631295042</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.029711789913035</v>
+        <v>1.040145529110853</v>
       </c>
       <c r="J17">
-        <v>1.023850505666372</v>
+        <v>1.00656317850853</v>
       </c>
       <c r="K17">
-        <v>1.03140189047118</v>
+        <v>1.018251071543785</v>
       </c>
       <c r="L17">
-        <v>1.022426638236584</v>
+        <v>1.003013246215081</v>
       </c>
       <c r="M17">
-        <v>1.039199767624688</v>
+        <v>1.015795830829022</v>
       </c>
       <c r="N17">
-        <v>1.012038918788916</v>
+        <v>1.006237365288528</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.017737022065076</v>
+        <v>0.9792481047549668</v>
       </c>
       <c r="D18">
-        <v>1.02816017440391</v>
+        <v>1.00508883509638</v>
       </c>
       <c r="E18">
-        <v>1.019164377401058</v>
+        <v>0.9895868846834011</v>
       </c>
       <c r="F18">
-        <v>1.036038615379757</v>
+        <v>1.002815624155595</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.029746017493803</v>
+        <v>1.040434586933421</v>
       </c>
       <c r="J18">
-        <v>1.023963190890299</v>
+        <v>1.007118685628769</v>
       </c>
       <c r="K18">
-        <v>1.031511295864551</v>
+        <v>1.018820302980275</v>
       </c>
       <c r="L18">
-        <v>1.022547262800541</v>
+        <v>1.003587815949812</v>
       </c>
       <c r="M18">
-        <v>1.039362416949156</v>
+        <v>1.016585932607206</v>
       </c>
       <c r="N18">
-        <v>1.012076289375454</v>
+        <v>1.006422241259857</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.017803420686538</v>
+        <v>0.9795897540029007</v>
       </c>
       <c r="D19">
-        <v>1.028212074811149</v>
+        <v>1.005350613837229</v>
       </c>
       <c r="E19">
-        <v>1.019220283470639</v>
+        <v>0.9898522968926127</v>
       </c>
       <c r="F19">
-        <v>1.036108616284578</v>
+        <v>1.003154055743154</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.029757652049772</v>
+        <v>1.040532502114011</v>
       </c>
       <c r="J19">
-        <v>1.024001609534529</v>
+        <v>1.007307362914687</v>
       </c>
       <c r="K19">
-        <v>1.031548585410024</v>
+        <v>1.019013572161385</v>
       </c>
       <c r="L19">
-        <v>1.022588394832066</v>
+        <v>1.003783024589535</v>
       </c>
       <c r="M19">
-        <v>1.039417872967739</v>
+        <v>1.016854314843133</v>
       </c>
       <c r="N19">
-        <v>1.012089029959321</v>
+        <v>1.006485033715676</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.017506504015008</v>
+        <v>0.9780568363094415</v>
       </c>
       <c r="D20">
-        <v>1.027979959697012</v>
+        <v>1.004176160452872</v>
       </c>
       <c r="E20">
-        <v>1.018970320408332</v>
+        <v>0.9886620345371211</v>
       </c>
       <c r="F20">
-        <v>1.035795593248736</v>
+        <v>1.001635863929105</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.02970547684774</v>
+        <v>1.040092051221483</v>
       </c>
       <c r="J20">
-        <v>1.023829776126927</v>
+        <v>1.006460645591989</v>
       </c>
       <c r="K20">
-        <v>1.031381759125344</v>
+        <v>1.01814597245489</v>
       </c>
       <c r="L20">
-        <v>1.022404451295548</v>
+        <v>1.002907221865072</v>
       </c>
       <c r="M20">
-        <v>1.039169847998341</v>
+        <v>1.015650009502748</v>
       </c>
       <c r="N20">
-        <v>1.012032043889556</v>
+        <v>1.006203241552165</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.016541794658704</v>
+        <v>0.9729831939874002</v>
       </c>
       <c r="D21">
-        <v>1.027225263216112</v>
+        <v>1.000291045165973</v>
       </c>
       <c r="E21">
-        <v>1.018158762545625</v>
+        <v>0.9847333065189174</v>
       </c>
       <c r="F21">
-        <v>1.034778590528656</v>
+        <v>0.9966162960020695</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.029533347932797</v>
+        <v>1.038614575857799</v>
       </c>
       <c r="J21">
-        <v>1.023270849771678</v>
+        <v>1.003655575024753</v>
       </c>
       <c r="K21">
-        <v>1.030838366469974</v>
+        <v>1.015266905704857</v>
       </c>
       <c r="L21">
-        <v>1.021806589155015</v>
+        <v>1.000009800703122</v>
       </c>
       <c r="M21">
-        <v>1.038363280192773</v>
+        <v>1.011662058511761</v>
       </c>
       <c r="N21">
-        <v>1.011846652350286</v>
+        <v>1.005269677637515</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.015935707168446</v>
+        <v>0.9697210394672704</v>
       </c>
       <c r="D22">
-        <v>1.026750712635745</v>
+        <v>0.9977950627717332</v>
       </c>
       <c r="E22">
-        <v>1.017649352902694</v>
+        <v>0.9822159279526145</v>
       </c>
       <c r="F22">
-        <v>1.034139679724096</v>
+        <v>0.9933932816354885</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.029423209931422</v>
+        <v>1.037649797580263</v>
       </c>
       <c r="J22">
-        <v>1.022919222519706</v>
+        <v>1.001850231700739</v>
       </c>
       <c r="K22">
-        <v>1.03049593573523</v>
+        <v>1.013410326814031</v>
       </c>
       <c r="L22">
-        <v>1.021430815684666</v>
+        <v>0.9981481193563559</v>
       </c>
       <c r="M22">
-        <v>1.037856002657064</v>
+        <v>1.009096764970664</v>
       </c>
       <c r="N22">
-        <v>1.011729996193985</v>
+        <v>1.004668831008894</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.016256961210334</v>
+        <v>0.9714574216155886</v>
       </c>
       <c r="D23">
-        <v>1.027002284365435</v>
+        <v>0.9991234126470997</v>
       </c>
       <c r="E23">
-        <v>1.017919319553237</v>
+        <v>0.9835550453076927</v>
       </c>
       <c r="F23">
-        <v>1.034478328629931</v>
+        <v>0.9951084012148795</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.029481777290499</v>
+        <v>1.038164703587759</v>
       </c>
       <c r="J23">
-        <v>1.023105646110902</v>
+        <v>1.002811335579919</v>
       </c>
       <c r="K23">
-        <v>1.030677538065206</v>
+        <v>1.014399040278724</v>
       </c>
       <c r="L23">
-        <v>1.021630007926847</v>
+        <v>0.9991389231676591</v>
       </c>
       <c r="M23">
-        <v>1.038124934367193</v>
+        <v>1.010462313970755</v>
       </c>
       <c r="N23">
-        <v>1.011791846518882</v>
+        <v>1.004988701211999</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.017522685251701</v>
+        <v>0.9781407196138118</v>
       </c>
       <c r="D24">
-        <v>1.027992611426385</v>
+        <v>1.004240421294673</v>
       </c>
       <c r="E24">
-        <v>1.01898394055078</v>
+        <v>0.9887271278355313</v>
       </c>
       <c r="F24">
-        <v>1.035812652105035</v>
+        <v>1.001718922168179</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.02970833010861</v>
+        <v>1.040116227430644</v>
       </c>
       <c r="J24">
-        <v>1.023839142987763</v>
+        <v>1.006506989357892</v>
       </c>
       <c r="K24">
-        <v>1.03139085588419</v>
+        <v>1.018193477364994</v>
       </c>
       <c r="L24">
-        <v>1.022414476579039</v>
+        <v>1.002955142682901</v>
       </c>
       <c r="M24">
-        <v>1.039183367447144</v>
+        <v>1.015715918701094</v>
       </c>
       <c r="N24">
-        <v>1.012035150393625</v>
+        <v>1.006218665117689</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.018993459451563</v>
+        <v>0.9856023627808834</v>
       </c>
       <c r="D25">
-        <v>1.029141584966492</v>
+        <v>1.009959326449808</v>
       </c>
       <c r="E25">
-        <v>1.020223013812886</v>
+        <v>0.9945358082832506</v>
       </c>
       <c r="F25">
-        <v>1.037363261440536</v>
+        <v>1.00911603795185</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.029962870951265</v>
+        <v>1.042230776002933</v>
       </c>
       <c r="J25">
-        <v>1.024689379862011</v>
+        <v>1.010624173407122</v>
       </c>
       <c r="K25">
-        <v>1.032215187844333</v>
+        <v>1.022404979254087</v>
       </c>
       <c r="L25">
-        <v>1.02332531552487</v>
+        <v>1.007219545185746</v>
       </c>
       <c r="M25">
-        <v>1.04041088592868</v>
+        <v>1.021574468427938</v>
       </c>
       <c r="N25">
-        <v>1.012317071403381</v>
+        <v>1.007588829100575</v>
       </c>
     </row>
   </sheetData>
